--- a/Documents/Schedule/Logs/KevinNoonanActivityLog.xlsx
+++ b/Documents/Schedule/Logs/KevinNoonanActivityLog.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Development Session | Meeting with Client</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">Final Development for ID2 implementing the finished scene</t>
   </si>
   <si>
     <t xml:space="preserve">ID2</t>
@@ -326,7 +326,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -379,7 +379,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,10 +388,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -506,18 +502,18 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.8622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1683673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,7 +826,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="15" t="n">
+      <c r="C25" s="6" t="n">
         <v>42776</v>
       </c>
       <c r="D25" s="0" t="s">
@@ -844,7 +840,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="15" t="n">
+      <c r="C26" s="6" t="n">
         <v>42777</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -858,7 +854,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="15" t="n">
+      <c r="C27" s="6" t="n">
         <v>42778</v>
       </c>
       <c r="D27" s="0" t="s">
@@ -872,15 +868,22 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="16"/>
+      <c r="C28" s="15" t="n">
+        <v>42781</v>
+      </c>
       <c r="D28" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="E28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="17"/>
-      <c r="F29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
@@ -890,45 +893,45 @@
         <v>26</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="19"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="12" t="n">
         <f aca="false">SUM(E24:E29)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F30" s="12" t="n">
         <f aca="false">SUM(F24:F29)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="20"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="20"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="20"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="20"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="20"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
@@ -941,7 +944,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="19"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="12" t="n">
         <f aca="false">SUM(E31:E35)</f>
         <v>0</v>
@@ -955,31 +958,31 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="20"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="20"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="20"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="20"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="20"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="8"/>
@@ -992,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="19"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="12" t="n">
         <f aca="false">SUM(E37:E41)</f>
         <v>0</v>
@@ -1006,31 +1009,31 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="20"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="20"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="20"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="20"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="20"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
@@ -1043,7 +1046,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="19"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="12" t="n">
         <f aca="false">SUM(E43:E47)</f>
         <v>0</v>
@@ -1057,19 +1060,19 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24" t="n">
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="23" t="n">
         <f aca="false">SUM(E48,E42,E36,E30,E18)</f>
-        <v>30</v>
-      </c>
-      <c r="F49" s="24" t="n">
+        <v>32</v>
+      </c>
+      <c r="F49" s="23" t="n">
         <f aca="false">SUM(F48,F42,F36,F30,F18)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>36</v>
